--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 BA.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>Course</t>
   </si>
@@ -400,6 +400,24 @@
     <t>3.86%</t>
   </si>
   <si>
+    <t>FINC-445</t>
+  </si>
+  <si>
+    <t>GASPAR J</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>63.64%</t>
+  </si>
+  <si>
+    <t>TUNCEZ A</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
     <t>FINC-460</t>
   </si>
   <si>
@@ -454,9 +472,6 @@
     <t>WOLKEN L</t>
   </si>
   <si>
-    <t>60.00%</t>
-  </si>
-  <si>
     <t>24.00%</t>
   </si>
   <si>
@@ -514,9 +529,6 @@
     <t>IBUS-692</t>
   </si>
   <si>
-    <t>GASPAR J</t>
-  </si>
-  <si>
     <t>INFO-601</t>
   </si>
   <si>
@@ -550,27 +562,60 @@
     <t>MANLEY M</t>
   </si>
   <si>
-    <t>96.77%</t>
-  </si>
-  <si>
-    <t>3.23%</t>
+    <t>98.21%</t>
+  </si>
+  <si>
+    <t>1.79%</t>
+  </si>
+  <si>
+    <t>INFO-634</t>
+  </si>
+  <si>
+    <t>WHITTEN G</t>
+  </si>
+  <si>
+    <t>78.57%</t>
+  </si>
+  <si>
+    <t>21.43%</t>
+  </si>
+  <si>
+    <t>ISYS-209</t>
+  </si>
+  <si>
+    <t>CURTSINGER W</t>
+  </si>
+  <si>
+    <t>57.89%</t>
+  </si>
+  <si>
+    <t>31.98%</t>
+  </si>
+  <si>
+    <t>6.48%</t>
+  </si>
+  <si>
+    <t>1.21%</t>
+  </si>
+  <si>
+    <t>2.43%</t>
   </si>
   <si>
     <t>ISYS-210</t>
   </si>
   <si>
+    <t>JAMIESON T</t>
+  </si>
+  <si>
+    <t>89.80%</t>
+  </si>
+  <si>
+    <t>10.20%</t>
+  </si>
+  <si>
     <t>56.67%</t>
   </si>
   <si>
-    <t>JAMIESON T</t>
-  </si>
-  <si>
-    <t>89.80%</t>
-  </si>
-  <si>
-    <t>10.20%</t>
-  </si>
-  <si>
     <t>ISYS-250</t>
   </si>
   <si>
@@ -580,6 +625,24 @@
     <t>MGMT-209</t>
   </si>
   <si>
+    <t>SWIM K</t>
+  </si>
+  <si>
+    <t>5.56%</t>
+  </si>
+  <si>
+    <t>43.52%</t>
+  </si>
+  <si>
+    <t>37.96%</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>1.85%</t>
+  </si>
+  <si>
     <t>HAILEY C</t>
   </si>
   <si>
@@ -598,24 +661,6 @@
     <t>2.17%</t>
   </si>
   <si>
-    <t>SWIM K</t>
-  </si>
-  <si>
-    <t>5.56%</t>
-  </si>
-  <si>
-    <t>43.52%</t>
-  </si>
-  <si>
-    <t>37.96%</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
     <t>MGMT-211</t>
   </si>
   <si>
@@ -697,6 +742,18 @@
     <t>MGMT-466</t>
   </si>
   <si>
+    <t>TIHANYI L</t>
+  </si>
+  <si>
+    <t>43.75%</t>
+  </si>
+  <si>
+    <t>53.13%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>KUBAN S</t>
   </si>
   <si>
@@ -715,42 +772,30 @@
     <t>46.67%</t>
   </si>
   <si>
-    <t>TIHANYI L</t>
-  </si>
-  <si>
-    <t>43.75%</t>
-  </si>
-  <si>
-    <t>53.13%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
     <t>MGMT-484</t>
   </si>
   <si>
+    <t>LESTER R</t>
+  </si>
+  <si>
     <t>MORA K</t>
   </si>
   <si>
-    <t>LESTER R</t>
-  </si>
-  <si>
     <t>MGMT-637</t>
   </si>
   <si>
+    <t>78.38%</t>
+  </si>
+  <si>
+    <t>21.62%</t>
+  </si>
+  <si>
     <t>68.42%</t>
   </si>
   <si>
     <t>31.58%</t>
   </si>
   <si>
-    <t>78.38%</t>
-  </si>
-  <si>
-    <t>21.62%</t>
-  </si>
-  <si>
     <t>MGMT-643</t>
   </si>
   <si>
@@ -826,6 +871,36 @@
     <t>3.45%</t>
   </si>
   <si>
+    <t>MKTG-403</t>
+  </si>
+  <si>
+    <t>MKTG-409</t>
+  </si>
+  <si>
+    <t>PRIDE W</t>
+  </si>
+  <si>
+    <t>13.28%</t>
+  </si>
+  <si>
+    <t>38.28%</t>
+  </si>
+  <si>
+    <t>9.38%</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>25.20%</t>
+  </si>
+  <si>
+    <t>44.72%</t>
+  </si>
+  <si>
+    <t>30.08%</t>
+  </si>
+  <si>
     <t>MKTG-440</t>
   </si>
   <si>
@@ -845,15 +920,6 @@
   </si>
   <si>
     <t>MKTG-621</t>
-  </si>
-  <si>
-    <t>78.57%</t>
-  </si>
-  <si>
-    <t>21.43%</t>
-  </si>
-  <si>
-    <t>PRIDE W</t>
   </si>
   <si>
     <t>46.15%</t>
@@ -1265,7 +1331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2090,210 +2156,210 @@
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
         <v>117</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C91" t="n">
         <v>3.158</v>
       </c>
-      <c r="D87" t="s">
-        <v>129</v>
-      </c>
-      <c r="E87" t="s">
-        <v>130</v>
-      </c>
-      <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="D91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" t="n">
         <v>3.125</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" t="s">
+        <v>140</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="D97" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" t="s">
+        <v>144</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="D100" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" t="s">
+        <v>149</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D103" t="s">
         <v>133</v>
       </c>
-      <c r="E90" t="s">
-        <v>134</v>
-      </c>
-      <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="D93" t="s">
-        <v>84</v>
-      </c>
-      <c r="E93" t="s">
-        <v>137</v>
-      </c>
-      <c r="F93" t="s">
-        <v>138</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.291</v>
-      </c>
-      <c r="D96" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" t="s">
-        <v>142</v>
-      </c>
-      <c r="F96" t="s">
-        <v>143</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" t="s">
-        <v>147</v>
-      </c>
-      <c r="F99" t="s">
-        <v>148</v>
-      </c>
-      <c r="G99" t="s">
-        <v>149</v>
-      </c>
-      <c r="H99" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>145</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3.5585</v>
-      </c>
-      <c r="D102" t="s">
-        <v>151</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>152</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>153</v>
       </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
+      <c r="G103" t="s">
         <v>154</v>
       </c>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="B105" t="s">
+      <c r="A105" t="s">
         <v>155</v>
-      </c>
-      <c r="C105" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E105" t="s">
-        <v>63</v>
-      </c>
-      <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
-      <c r="H105" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.5585</v>
+      </c>
+      <c r="D106" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" t="s">
         <v>157</v>
       </c>
-      <c r="C106" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>158</v>
-      </c>
-      <c r="E106" t="s">
-        <v>159</v>
-      </c>
-      <c r="F106" t="s">
-        <v>21</v>
       </c>
       <c r="G106" t="s">
         <v>21</v>
@@ -2304,212 +2370,212 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C109" t="n">
-        <v>3.625</v>
+        <v>3.833</v>
       </c>
       <c r="D109" t="s">
         <v>161</v>
       </c>
       <c r="E109" t="s">
+        <v>63</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D110" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" t="s">
+        <v>164</v>
+      </c>
+      <c r="F110" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D113" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113" t="s">
         <v>85</v>
       </c>
-      <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>163</v>
-      </c>
-      <c r="C112" t="n">
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" t="n">
         <v>3.5</v>
       </c>
-      <c r="D112" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" t="s">
-        <v>164</v>
-      </c>
-      <c r="F112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
-      <c r="H112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="B115" t="s">
+      <c r="D116" t="s">
         <v>166</v>
       </c>
-      <c r="C115" t="n">
+      <c r="E116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" t="s">
+        <v>139</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="n">
         <v>4</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D119" t="s">
         <v>43</v>
       </c>
-      <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="B118" t="s">
-        <v>168</v>
-      </c>
-      <c r="C118" t="n">
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" t="n">
         <v>3.654</v>
       </c>
-      <c r="D118" t="s">
-        <v>169</v>
-      </c>
-      <c r="E118" t="s">
-        <v>170</v>
-      </c>
-      <c r="F118" t="s">
-        <v>171</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="B121" t="s">
+      <c r="D122" t="s">
         <v>173</v>
       </c>
-      <c r="C121" t="n">
+      <c r="E122" t="s">
+        <v>174</v>
+      </c>
+      <c r="F122" t="s">
+        <v>175</v>
+      </c>
+      <c r="G122" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="n">
         <v>3.693</v>
       </c>
-      <c r="D121" t="s">
-        <v>174</v>
-      </c>
-      <c r="E121" t="s">
-        <v>175</v>
-      </c>
-      <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="B124" t="s">
-        <v>177</v>
-      </c>
-      <c r="C124" t="n">
-        <v>3.968</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>178</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>179</v>
       </c>
-      <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
-      <c r="H124" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" t="s">
-        <v>168</v>
-      </c>
-      <c r="C127" t="n">
-        <v>3.233</v>
-      </c>
-      <c r="D127" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" t="s">
-        <v>181</v>
-      </c>
-      <c r="F127" t="s">
-        <v>121</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="D128" t="s">
         <v>182</v>
       </c>
-      <c r="C128" t="n">
-        <v>3.898</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>183</v>
-      </c>
-      <c r="E128" t="s">
-        <v>184</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -2523,322 +2589,322 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
+        <v>185</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D131" t="s">
         <v>186</v>
       </c>
-      <c r="C131" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D131" t="s">
-        <v>161</v>
-      </c>
       <c r="E131" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="F131" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s">
         <v>21</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C134" t="n">
-        <v>2.56</v>
+        <v>3.417</v>
       </c>
       <c r="D134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F134" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G134" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H134" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
         <v>194</v>
       </c>
-      <c r="C135" t="n">
-        <v>2.398</v>
-      </c>
-      <c r="D135" t="s">
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
         <v>195</v>
       </c>
-      <c r="E135" t="s">
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" t="s">
         <v>196</v>
       </c>
-      <c r="F135" t="s">
+      <c r="C137" t="n">
+        <v>3.898</v>
+      </c>
+      <c r="D137" t="s">
         <v>197</v>
       </c>
-      <c r="G135" t="s">
+      <c r="E137" t="s">
         <v>198</v>
       </c>
-      <c r="H135" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>200</v>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C138" t="n">
-        <v>2.559</v>
+        <v>3.233</v>
       </c>
       <c r="D138" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F138" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="G138" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="H138" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C141" t="n">
-        <v>2.556</v>
+        <v>3.125</v>
       </c>
       <c r="D141" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="E141" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="F141" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="G141" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="H141" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="D144" t="s">
+        <v>204</v>
+      </c>
+      <c r="E144" t="s">
+        <v>205</v>
+      </c>
+      <c r="F144" t="s">
+        <v>206</v>
+      </c>
+      <c r="G144" t="s">
+        <v>207</v>
+      </c>
+      <c r="H144" t="s">
         <v>208</v>
       </c>
-      <c r="C144" t="n">
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145" t="s">
+        <v>209</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D145" t="s">
+        <v>210</v>
+      </c>
+      <c r="E145" t="s">
+        <v>211</v>
+      </c>
+      <c r="F145" t="s">
+        <v>212</v>
+      </c>
+      <c r="G145" t="s">
+        <v>213</v>
+      </c>
+      <c r="H145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="B148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="D148" t="s">
+        <v>216</v>
+      </c>
+      <c r="E148" t="s">
+        <v>217</v>
+      </c>
+      <c r="F148" t="s">
+        <v>218</v>
+      </c>
+      <c r="G148" t="s">
+        <v>216</v>
+      </c>
+      <c r="H148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="B151" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="D151" t="s">
+        <v>204</v>
+      </c>
+      <c r="E151" t="s">
+        <v>220</v>
+      </c>
+      <c r="F151" t="s">
+        <v>221</v>
+      </c>
+      <c r="G151" t="s">
+        <v>207</v>
+      </c>
+      <c r="H151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" t="n">
         <v>2.46</v>
       </c>
-      <c r="D144" t="s">
-        <v>209</v>
-      </c>
-      <c r="E144" t="s">
-        <v>210</v>
-      </c>
-      <c r="F144" t="s">
-        <v>211</v>
-      </c>
-      <c r="G144" t="s">
-        <v>212</v>
-      </c>
-      <c r="H144" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="B147" t="s">
-        <v>208</v>
-      </c>
-      <c r="C147" t="n">
+      <c r="D154" t="s">
+        <v>224</v>
+      </c>
+      <c r="E154" t="s">
+        <v>225</v>
+      </c>
+      <c r="F154" t="s">
+        <v>226</v>
+      </c>
+      <c r="G154" t="s">
+        <v>227</v>
+      </c>
+      <c r="H154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
+        <v>223</v>
+      </c>
+      <c r="C157" t="n">
         <v>2.933</v>
       </c>
-      <c r="D147" t="s">
-        <v>215</v>
-      </c>
-      <c r="E147" t="s">
-        <v>216</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="D157" t="s">
+        <v>230</v>
+      </c>
+      <c r="E157" t="s">
+        <v>231</v>
+      </c>
+      <c r="F157" t="s">
         <v>100</v>
       </c>
-      <c r="G147" t="s">
-        <v>217</v>
-      </c>
-      <c r="H147" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="B150" t="s">
-        <v>220</v>
-      </c>
-      <c r="C150" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="D150" t="s">
-        <v>221</v>
-      </c>
-      <c r="E150" t="s">
-        <v>206</v>
-      </c>
-      <c r="F150" t="s">
-        <v>195</v>
-      </c>
-      <c r="G150" t="s">
-        <v>21</v>
-      </c>
-      <c r="H150" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="B153" t="s">
-        <v>223</v>
-      </c>
-      <c r="C153" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D153" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" t="s">
-        <v>133</v>
-      </c>
-      <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="B156" t="s">
-        <v>225</v>
-      </c>
-      <c r="C156" t="n">
-        <v>4</v>
-      </c>
-      <c r="D156" t="s">
-        <v>43</v>
-      </c>
-      <c r="E156" t="s">
-        <v>21</v>
-      </c>
-      <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>226</v>
+      <c r="G157" t="s">
+        <v>232</v>
+      </c>
+      <c r="H157" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="B159" t="s">
-        <v>227</v>
-      </c>
-      <c r="C159" t="n">
-        <v>3.471</v>
-      </c>
-      <c r="D159" t="s">
-        <v>228</v>
-      </c>
-      <c r="E159" t="s">
-        <v>229</v>
-      </c>
-      <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" t="s">
-        <v>21</v>
+      <c r="A159" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C160" t="n">
-        <v>3.533</v>
+        <v>3.611</v>
       </c>
       <c r="D160" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E160" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="G160" t="s">
         <v>21</v>
@@ -2847,114 +2913,73 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>233</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.4245</v>
-      </c>
-      <c r="D161" t="s">
-        <v>234</v>
-      </c>
-      <c r="E161" t="s">
-        <v>235</v>
-      </c>
-      <c r="F161" t="s">
-        <v>236</v>
-      </c>
-      <c r="G161" t="s">
-        <v>21</v>
-      </c>
-      <c r="H161" t="s">
-        <v>21</v>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
+      <c r="B163" t="s">
         <v>238</v>
       </c>
-      <c r="C164" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D164" t="s">
-        <v>156</v>
-      </c>
-      <c r="E164" t="s">
-        <v>63</v>
-      </c>
-      <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>21</v>
-      </c>
-      <c r="H164" t="s">
+      <c r="C163" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D163" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" t="s">
+        <v>139</v>
+      </c>
+      <c r="F163" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>21</v>
+      </c>
+      <c r="H163" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="B165" t="s">
+      <c r="A165" t="s">
         <v>239</v>
       </c>
-      <c r="C165" t="n">
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>240</v>
+      </c>
+      <c r="C166" t="n">
         <v>4</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>43</v>
       </c>
-      <c r="E165" t="s">
-        <v>21</v>
-      </c>
-      <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>21</v>
-      </c>
-      <c r="H165" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>240</v>
+      <c r="E166" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>21</v>
+      </c>
+      <c r="H166" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>230</v>
-      </c>
-      <c r="C168" t="n">
-        <v>3.684</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="A168" t="s">
         <v>241</v>
-      </c>
-      <c r="E168" t="s">
-        <v>242</v>
-      </c>
-      <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>21</v>
-      </c>
-      <c r="H168" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C169" t="n">
-        <v>3.784</v>
+        <v>3.4245</v>
       </c>
       <c r="D169" t="s">
         <v>243</v>
@@ -2963,7 +2988,7 @@
         <v>244</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="G169" t="s">
         <v>21</v>
@@ -2972,54 +2997,95 @@
         <v>21</v>
       </c>
     </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.471</v>
+      </c>
+      <c r="D170" t="s">
+        <v>247</v>
+      </c>
+      <c r="E170" t="s">
+        <v>248</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>21</v>
+      </c>
+      <c r="H170" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>120</v>
-      </c>
-      <c r="C172" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D172" t="s">
-        <v>246</v>
-      </c>
-      <c r="E172" t="s">
-        <v>247</v>
-      </c>
-      <c r="F172" t="s">
-        <v>248</v>
-      </c>
-      <c r="G172" t="s">
-        <v>21</v>
-      </c>
-      <c r="H172" t="s">
-        <v>21</v>
+      <c r="B171" t="s">
+        <v>249</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.533</v>
+      </c>
+      <c r="D171" t="s">
+        <v>250</v>
+      </c>
+      <c r="E171" t="s">
+        <v>251</v>
+      </c>
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>21</v>
+      </c>
+      <c r="H171" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>249</v>
+      <c r="B174" t="s">
+        <v>253</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>21</v>
+      </c>
+      <c r="H174" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="B175" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C175" t="n">
-        <v>3.692</v>
+        <v>3.833</v>
       </c>
       <c r="D175" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="E175" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F175" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="G175" t="s">
         <v>21</v>
@@ -3030,7 +3096,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -3038,151 +3104,151 @@
         <v>253</v>
       </c>
       <c r="C178" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="D178" t="s">
+        <v>256</v>
+      </c>
+      <c r="E178" t="s">
+        <v>257</v>
+      </c>
+      <c r="F178" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>21</v>
+      </c>
+      <c r="H178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>249</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="D179" t="s">
+        <v>258</v>
+      </c>
+      <c r="E179" t="s">
+        <v>259</v>
+      </c>
+      <c r="F179" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>21</v>
+      </c>
+      <c r="H179" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>120</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>261</v>
+      </c>
+      <c r="E182" t="s">
+        <v>262</v>
+      </c>
+      <c r="F182" t="s">
+        <v>263</v>
+      </c>
+      <c r="G182" t="s">
+        <v>21</v>
+      </c>
+      <c r="H182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>265</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="D185" t="s">
+        <v>266</v>
+      </c>
+      <c r="E185" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" t="s">
+        <v>175</v>
+      </c>
+      <c r="G185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H185" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
+        <v>268</v>
+      </c>
+      <c r="C188" t="n">
         <v>3.773</v>
       </c>
-      <c r="D178" t="s">
-        <v>254</v>
-      </c>
-      <c r="E178" t="s">
-        <v>255</v>
-      </c>
-      <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" t="s">
-        <v>21</v>
-      </c>
-      <c r="H178" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>230</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D181" t="s">
-        <v>257</v>
-      </c>
-      <c r="E181" t="s">
-        <v>258</v>
-      </c>
-      <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>21</v>
-      </c>
-      <c r="H181" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>260</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D184" t="s">
-        <v>62</v>
-      </c>
-      <c r="E184" t="s">
-        <v>164</v>
-      </c>
-      <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184" t="s">
-        <v>21</v>
-      </c>
-      <c r="H184" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>262</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D187" t="s">
-        <v>205</v>
-      </c>
-      <c r="E187" t="s">
-        <v>263</v>
-      </c>
-      <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>21</v>
-      </c>
-      <c r="H187" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>264</v>
+      <c r="D188" t="s">
+        <v>269</v>
+      </c>
+      <c r="E188" t="s">
+        <v>270</v>
+      </c>
+      <c r="F188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>21</v>
+      </c>
+      <c r="H188" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>157</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D190" t="s">
-        <v>265</v>
-      </c>
-      <c r="E190" t="s">
-        <v>266</v>
-      </c>
-      <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>21</v>
-      </c>
-      <c r="H190" t="s">
-        <v>21</v>
+      <c r="A190" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="C191" t="n">
-        <v>3.862</v>
+        <v>3.588</v>
       </c>
       <c r="D191" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E191" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F191" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="G191" t="s">
         <v>21</v>
@@ -3193,21 +3259,21 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C194" t="n">
-        <v>3.556</v>
+        <v>3.75</v>
       </c>
       <c r="D194" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="E194" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -3221,24 +3287,24 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C197" t="n">
-        <v>3.219</v>
+        <v>3.556</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="E197" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F197" t="s">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="G197" t="s">
         <v>21</v>
@@ -3249,21 +3315,21 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="C200" t="n">
-        <v>3.786</v>
+        <v>3.84</v>
       </c>
       <c r="D200" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E200" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F200" t="s">
         <v>21</v>
@@ -3277,19 +3343,19 @@
     </row>
     <row r="201" spans="1:8">
       <c r="B201" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="C201" t="n">
-        <v>3.385</v>
+        <v>3.862</v>
       </c>
       <c r="D201" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E201" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F201" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="G201" t="s">
         <v>21</v>
@@ -3300,21 +3366,21 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="B204" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="C204" t="n">
-        <v>3.857</v>
+        <v>3.833</v>
       </c>
       <c r="D204" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="E204" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="F204" t="s">
         <v>21</v>
@@ -3328,164 +3394,350 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="B207" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>2.516</v>
       </c>
       <c r="D207" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="E207" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="F207" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="G207" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="H207" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>277</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.951</v>
+      </c>
+      <c r="D208" t="s">
+        <v>292</v>
+      </c>
+      <c r="E208" t="s">
+        <v>293</v>
+      </c>
+      <c r="F208" t="s">
+        <v>294</v>
+      </c>
+      <c r="G208" t="s">
+        <v>21</v>
+      </c>
+      <c r="H208" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="B210" t="s">
-        <v>289</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.216</v>
-      </c>
-      <c r="D210" t="s">
-        <v>290</v>
-      </c>
-      <c r="E210" t="s">
-        <v>291</v>
-      </c>
-      <c r="F210" t="s">
-        <v>292</v>
-      </c>
-      <c r="G210" t="s">
-        <v>293</v>
-      </c>
-      <c r="H210" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>294</v>
+      <c r="A210" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>296</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D211" t="s">
+        <v>220</v>
+      </c>
+      <c r="E211" t="s">
+        <v>278</v>
+      </c>
+      <c r="F211" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>21</v>
+      </c>
+      <c r="H211" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="B213" t="s">
-        <v>295</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D213" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" t="s">
-        <v>19</v>
-      </c>
-      <c r="F213" t="s">
-        <v>100</v>
-      </c>
-      <c r="G213" t="s">
-        <v>21</v>
-      </c>
-      <c r="H213" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>296</v>
+      <c r="A213" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>298</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="D214" t="s">
+        <v>35</v>
+      </c>
+      <c r="E214" t="s">
+        <v>299</v>
+      </c>
+      <c r="F214" t="s">
+        <v>300</v>
+      </c>
+      <c r="G214" t="s">
+        <v>21</v>
+      </c>
+      <c r="H214" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="B216" t="s">
-        <v>297</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.439</v>
-      </c>
-      <c r="D216" t="s">
-        <v>298</v>
-      </c>
-      <c r="E216" t="s">
-        <v>299</v>
-      </c>
-      <c r="F216" t="s">
-        <v>300</v>
-      </c>
-      <c r="G216" t="s">
-        <v>21</v>
-      </c>
-      <c r="H216" t="s">
-        <v>21</v>
+      <c r="A216" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="B217" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C217" t="n">
-        <v>3.348</v>
+        <v>3.385</v>
       </c>
       <c r="D217" t="s">
         <v>302</v>
       </c>
       <c r="E217" t="s">
+        <v>302</v>
+      </c>
+      <c r="F217" t="s">
+        <v>175</v>
+      </c>
+      <c r="G217" t="s">
+        <v>21</v>
+      </c>
+      <c r="H217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="B218" t="s">
+        <v>277</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D218" t="s">
+        <v>186</v>
+      </c>
+      <c r="E218" t="s">
+        <v>187</v>
+      </c>
+      <c r="F218" t="s">
+        <v>21</v>
+      </c>
+      <c r="G218" t="s">
+        <v>21</v>
+      </c>
+      <c r="H218" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="B221" t="s">
+        <v>304</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D221" t="s">
+        <v>305</v>
+      </c>
+      <c r="E221" t="s">
+        <v>306</v>
+      </c>
+      <c r="F221" t="s">
+        <v>21</v>
+      </c>
+      <c r="G221" t="s">
+        <v>21</v>
+      </c>
+      <c r="H221" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="B224" t="s">
+        <v>308</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+      <c r="D224" t="s">
+        <v>207</v>
+      </c>
+      <c r="E224" t="s">
+        <v>309</v>
+      </c>
+      <c r="F224" t="s">
+        <v>207</v>
+      </c>
+      <c r="G224" t="s">
+        <v>21</v>
+      </c>
+      <c r="H224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="B227" t="s">
+        <v>311</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="D227" t="s">
+        <v>312</v>
+      </c>
+      <c r="E227" t="s">
+        <v>313</v>
+      </c>
+      <c r="F227" t="s">
+        <v>314</v>
+      </c>
+      <c r="G227" t="s">
+        <v>315</v>
+      </c>
+      <c r="H227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="B230" t="s">
+        <v>317</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" t="s">
+        <v>100</v>
+      </c>
+      <c r="G230" t="s">
+        <v>21</v>
+      </c>
+      <c r="H230" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="B233" t="s">
+        <v>319</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="D233" t="s">
+        <v>320</v>
+      </c>
+      <c r="E233" t="s">
+        <v>321</v>
+      </c>
+      <c r="F233" t="s">
+        <v>322</v>
+      </c>
+      <c r="G233" t="s">
+        <v>21</v>
+      </c>
+      <c r="H233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
+        <v>323</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.348</v>
+      </c>
+      <c r="D234" t="s">
+        <v>324</v>
+      </c>
+      <c r="E234" t="s">
         <v>84</v>
       </c>
-      <c r="F217" t="s">
-        <v>303</v>
-      </c>
-      <c r="G217" t="s">
-        <v>21</v>
-      </c>
-      <c r="H217" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="B220" t="s">
-        <v>286</v>
-      </c>
-      <c r="C220" t="n">
+      <c r="F234" t="s">
+        <v>325</v>
+      </c>
+      <c r="G234" t="s">
+        <v>21</v>
+      </c>
+      <c r="H234" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>308</v>
+      </c>
+      <c r="C237" t="n">
         <v>2.875</v>
       </c>
-      <c r="D220" t="s">
-        <v>164</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="D237" t="s">
+        <v>169</v>
+      </c>
+      <c r="E237" t="s">
         <v>85</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F237" t="s">
         <v>85</v>
       </c>
-      <c r="G220" t="s">
-        <v>21</v>
-      </c>
-      <c r="H220" t="s">
+      <c r="G237" t="s">
+        <v>21</v>
+      </c>
+      <c r="H237" t="s">
         <v>21</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 BA.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 BA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ACCT-209</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>1.23%</t>
   </si>
   <si>
+    <t>1.21%</t>
+  </si>
+  <si>
     <t>ACCT-210</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>ACCT-229</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>15.38%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>ACCT-230</t>
   </si>
   <si>
@@ -169,6 +181,9 @@
     <t>6.06%</t>
   </si>
   <si>
+    <t>2.94%</t>
+  </si>
+  <si>
     <t>ACCT-328</t>
   </si>
   <si>
@@ -250,6 +265,9 @@
     <t>7.59%</t>
   </si>
   <si>
+    <t>1.25%</t>
+  </si>
+  <si>
     <t>ACCT-427</t>
   </si>
   <si>
@@ -259,9 +277,6 @@
     <t>65.00%</t>
   </si>
   <si>
-    <t>2.50%</t>
-  </si>
-  <si>
     <t>ACCT-445</t>
   </si>
   <si>
@@ -307,6 +322,9 @@
     <t>3.66%</t>
   </si>
   <si>
+    <t>1.20%</t>
+  </si>
+  <si>
     <t>ACCT-629</t>
   </si>
   <si>
@@ -364,6 +382,9 @@
     <t>2.83%</t>
   </si>
   <si>
+    <t>1.40%</t>
+  </si>
+  <si>
     <t>FINC-350</t>
   </si>
   <si>
@@ -400,6 +421,9 @@
     <t>3.86%</t>
   </si>
   <si>
+    <t>1.63%</t>
+  </si>
+  <si>
     <t>FINC-445</t>
   </si>
   <si>
@@ -595,12 +619,12 @@
     <t>6.48%</t>
   </si>
   <si>
-    <t>1.21%</t>
-  </si>
-  <si>
     <t>2.43%</t>
   </si>
   <si>
+    <t>0.40%</t>
+  </si>
+  <si>
     <t>ISYS-210</t>
   </si>
   <si>
@@ -673,6 +697,9 @@
     <t>31.48%</t>
   </si>
   <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>MGMT-212</t>
   </si>
   <si>
@@ -718,6 +745,9 @@
     <t>1.33%</t>
   </si>
   <si>
+    <t>1.32%</t>
+  </si>
+  <si>
     <t>MGMT-373</t>
   </si>
   <si>
@@ -892,6 +922,9 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>0.78%</t>
+  </si>
+  <si>
     <t>25.20%</t>
   </si>
   <si>
@@ -944,6 +977,9 @@
   </si>
   <si>
     <t>77.78%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
   </si>
   <si>
     <t>SCMT-303</t>
@@ -1032,12 +1068,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1331,15 +1366,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1364,2381 +1399,2645 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.755</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>2.767</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>2.59</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>3.11</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
         <v>2.619</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
         <v>3.333</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
         <v>2.606</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
         <v>3.69</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>3.3395</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C33" t="n">
         <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" t="n">
         <v>3.698</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C39" t="n">
         <v>3.029</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C42" t="n">
         <v>3.6065</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C45" t="n">
         <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C48" t="n">
         <v>3.25</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C54" t="n">
         <v>3.97</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C57" t="n">
         <v>3.354</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C60" t="n">
         <v>3.8</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C63" t="n">
         <v>3.893</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C66" t="n">
         <v>3.2</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C72" t="n">
         <v>3.077</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C75" t="n">
         <v>2.906</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C78" t="n">
         <v>3.917</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C81" t="n">
         <v>3.4</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C84" t="n">
         <v>2.76</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G84" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C87" t="n">
         <v>3.364</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C88" t="n">
         <v>3.4</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C91" t="n">
         <v>3.158</v>
       </c>
       <c r="D91" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E91" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C94" t="n">
         <v>3.125</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E94" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C97" t="n">
         <v>3.48</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F97" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C100" t="n">
         <v>3.291</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F100" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C103" t="n">
         <v>3.4</v>
       </c>
       <c r="D103" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E103" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C106" t="n">
         <v>3.5585</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E106" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F106" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C109" t="n">
         <v>3.833</v>
       </c>
       <c r="D109" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C110" t="n">
         <v>3.95</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E110" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C113" t="n">
         <v>3.625</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E113" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C116" t="n">
         <v>3.5</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E116" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G116" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H116" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C122" t="n">
         <v>3.654</v>
       </c>
       <c r="D122" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E122" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F122" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C125" t="n">
         <v>3.693</v>
       </c>
       <c r="D125" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E125" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C128" t="n">
         <v>3.984</v>
       </c>
       <c r="D128" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E128" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H128" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C131" t="n">
         <v>3.786</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E131" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H131" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C134" t="n">
         <v>3.417</v>
       </c>
       <c r="D134" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E134" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F134" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G134" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="H134" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C137" t="n">
         <v>3.898</v>
       </c>
       <c r="D137" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E137" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G137" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H137" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C138" t="n">
         <v>3.233</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E138" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F138" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G138" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H138" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C141" t="n">
         <v>3.125</v>
       </c>
       <c r="D141" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F141" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G141" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C144" t="n">
         <v>2.398</v>
       </c>
       <c r="D144" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E144" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F144" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G144" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H144" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C145" t="n">
         <v>2.56</v>
       </c>
       <c r="D145" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E145" t="s">
+        <v>219</v>
+      </c>
+      <c r="F145" t="s">
+        <v>220</v>
+      </c>
+      <c r="G145" t="s">
+        <v>221</v>
+      </c>
+      <c r="H145" t="s">
+        <v>222</v>
+      </c>
+      <c r="I145" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="B148" t="s">
         <v>211</v>
-      </c>
-      <c r="F145" t="s">
-        <v>212</v>
-      </c>
-      <c r="G145" t="s">
-        <v>213</v>
-      </c>
-      <c r="H145" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>203</v>
       </c>
       <c r="C148" t="n">
         <v>2.559</v>
       </c>
       <c r="D148" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F148" t="s">
+        <v>226</v>
+      </c>
+      <c r="G148" t="s">
+        <v>224</v>
+      </c>
+      <c r="H148" t="s">
+        <v>224</v>
+      </c>
+      <c r="I148" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="B151" t="s">
         <v>217</v>
-      </c>
-      <c r="F148" t="s">
-        <v>218</v>
-      </c>
-      <c r="G148" t="s">
-        <v>216</v>
-      </c>
-      <c r="H148" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="B151" t="s">
-        <v>209</v>
       </c>
       <c r="C151" t="n">
         <v>2.556</v>
       </c>
       <c r="D151" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E151" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F151" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G151" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H151" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C154" t="n">
         <v>2.46</v>
       </c>
       <c r="D154" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E154" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F154" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G154" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="H154" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I154" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C157" t="n">
         <v>2.933</v>
       </c>
       <c r="D157" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E157" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F157" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G157" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H157" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I157" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C160" t="n">
         <v>3.611</v>
       </c>
       <c r="D160" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E160" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F160" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G160" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H160" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C163" t="n">
         <v>3.875</v>
       </c>
       <c r="D163" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E163" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G163" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E166" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G166" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H166" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C169" t="n">
         <v>3.4245</v>
       </c>
       <c r="D169" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E169" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F169" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G169" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H169" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C170" t="n">
         <v>3.471</v>
       </c>
       <c r="D170" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E170" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G170" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H170" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C171" t="n">
         <v>3.533</v>
       </c>
       <c r="D171" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E171" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G171" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H171" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E174" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G174" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H174" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C175" t="n">
         <v>3.833</v>
       </c>
       <c r="D175" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E175" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G175" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H175" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C178" t="n">
         <v>3.784</v>
       </c>
       <c r="D178" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E178" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H178" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C179" t="n">
         <v>3.684</v>
       </c>
       <c r="D179" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E179" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H179" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C182" t="n">
         <v>3.6</v>
       </c>
       <c r="D182" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E182" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F182" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G182" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H182" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C185" t="n">
         <v>3.692</v>
       </c>
       <c r="D185" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E185" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F185" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G185" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H185" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I185" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C188" t="n">
         <v>3.773</v>
       </c>
       <c r="D188" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E188" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G188" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H188" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C191" t="n">
         <v>3.588</v>
       </c>
       <c r="D191" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E191" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G191" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H191" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C194" t="n">
         <v>3.75</v>
       </c>
       <c r="D194" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E194" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G194" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H194" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C197" t="n">
         <v>3.556</v>
       </c>
       <c r="D197" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E197" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G197" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H197" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C200" t="n">
         <v>3.84</v>
       </c>
       <c r="D200" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E200" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G200" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H200" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C201" t="n">
         <v>3.862</v>
       </c>
       <c r="D201" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E201" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F201" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G201" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H201" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C204" t="n">
         <v>3.833</v>
       </c>
       <c r="D204" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E204" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G204" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H204" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I204" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C207" t="n">
         <v>2.516</v>
       </c>
       <c r="D207" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E207" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F207" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="G207" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H207" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>301</v>
+      </c>
+      <c r="I207" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C208" t="n">
         <v>2.951</v>
       </c>
       <c r="D208" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E208" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F208" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G208" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H208" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I208" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C211" t="n">
         <v>3.556</v>
       </c>
       <c r="D211" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E211" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G211" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H211" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I211" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C214" t="n">
         <v>3.219</v>
       </c>
       <c r="D214" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E214" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F214" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G214" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H214" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C217" t="n">
         <v>3.385</v>
       </c>
       <c r="D217" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E217" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F217" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G217" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H217" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C218" t="n">
         <v>3.786</v>
       </c>
       <c r="D218" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E218" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F218" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G218" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H218" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C221" t="n">
         <v>3.857</v>
       </c>
       <c r="D221" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E221" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F221" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G221" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H221" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C224" t="n">
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E224" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F224" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G224" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H224" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I224" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C227" t="n">
         <v>3.216</v>
       </c>
       <c r="D227" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E227" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F227" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G227" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H227" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I227" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C230" t="n">
         <v>3.2</v>
       </c>
       <c r="D230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F230" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G230" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H230" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I230" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C233" t="n">
         <v>3.439</v>
       </c>
       <c r="D233" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E233" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F233" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G233" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H233" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C234" t="n">
         <v>3.348</v>
       </c>
       <c r="D234" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E234" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F234" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G234" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H234" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C237" t="n">
         <v>2.875</v>
       </c>
       <c r="D237" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E237" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F237" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G237" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H237" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I237" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 BA.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>Course</t>
   </si>
@@ -949,6 +949,21 @@
     <t>SCMT-303</t>
   </si>
   <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>43.90%</t>
+  </si>
+  <si>
+    <t>29.27%</t>
+  </si>
+  <si>
+    <t>24.39%</t>
+  </si>
+  <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>DARCEY L</t>
   </si>
   <si>
@@ -962,6 +977,9 @@
   </si>
   <si>
     <t>7.84%</t>
+  </si>
+  <si>
+    <t>SCMT-305</t>
   </si>
   <si>
     <t>SCMT-340</t>
@@ -1331,7 +1349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3616,7 +3634,7 @@
         <v>311</v>
       </c>
       <c r="C227" t="n">
-        <v>3.216</v>
+        <v>3.122</v>
       </c>
       <c r="D227" t="s">
         <v>312</v>
@@ -3628,66 +3646,66 @@
         <v>314</v>
       </c>
       <c r="G227" t="s">
+        <v>21</v>
+      </c>
+      <c r="H227" t="s">
         <v>315</v>
       </c>
-      <c r="H227" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="s">
+    </row>
+    <row r="228" spans="1:8">
+      <c r="B228" t="s">
         <v>316</v>
       </c>
+      <c r="C228" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="D228" t="s">
+        <v>317</v>
+      </c>
+      <c r="E228" t="s">
+        <v>318</v>
+      </c>
+      <c r="F228" t="s">
+        <v>319</v>
+      </c>
+      <c r="G228" t="s">
+        <v>320</v>
+      </c>
+      <c r="H228" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="B230" t="s">
-        <v>317</v>
-      </c>
-      <c r="C230" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="A230" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="B231" t="s">
+        <v>311</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>133</v>
+      </c>
+      <c r="E231" t="s">
         <v>19</v>
       </c>
-      <c r="E230" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" t="s">
-        <v>100</v>
-      </c>
-      <c r="G230" t="s">
-        <v>21</v>
-      </c>
-      <c r="H230" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>318</v>
+      <c r="F231" t="s">
+        <v>21</v>
+      </c>
+      <c r="G231" t="s">
+        <v>21</v>
+      </c>
+      <c r="H231" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="B233" t="s">
-        <v>319</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.439</v>
-      </c>
-      <c r="D233" t="s">
-        <v>320</v>
-      </c>
-      <c r="E233" t="s">
-        <v>321</v>
-      </c>
-      <c r="F233" t="s">
+      <c r="A233" t="s">
         <v>322</v>
-      </c>
-      <c r="G233" t="s">
-        <v>21</v>
-      </c>
-      <c r="H233" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -3695,16 +3713,16 @@
         <v>323</v>
       </c>
       <c r="C234" t="n">
-        <v>3.348</v>
+        <v>3.2</v>
       </c>
       <c r="D234" t="s">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="E234" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F234" t="s">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="G234" t="s">
         <v>21</v>
@@ -3715,29 +3733,80 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="B237" t="s">
+        <v>325</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="D237" t="s">
+        <v>326</v>
+      </c>
+      <c r="E237" t="s">
+        <v>327</v>
+      </c>
+      <c r="F237" t="s">
+        <v>328</v>
+      </c>
+      <c r="G237" t="s">
+        <v>21</v>
+      </c>
+      <c r="H237" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
+        <v>329</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.348</v>
+      </c>
+      <c r="D238" t="s">
+        <v>330</v>
+      </c>
+      <c r="E238" t="s">
+        <v>84</v>
+      </c>
+      <c r="F238" t="s">
+        <v>331</v>
+      </c>
+      <c r="G238" t="s">
+        <v>21</v>
+      </c>
+      <c r="H238" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="B241" t="s">
         <v>308</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C241" t="n">
         <v>2.875</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D241" t="s">
         <v>169</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E241" t="s">
         <v>85</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F241" t="s">
         <v>85</v>
       </c>
-      <c r="G237" t="s">
-        <v>21</v>
-      </c>
-      <c r="H237" t="s">
+      <c r="G241" t="s">
+        <v>21</v>
+      </c>
+      <c r="H241" t="s">
         <v>21</v>
       </c>
     </row>
